--- a/Code/Results/Cases/Case_1_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.707758783051162</v>
+        <v>1.231199300764985</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1077920609645551</v>
+        <v>0.3119802486860817</v>
       </c>
       <c r="E2">
-        <v>0.1271798164006164</v>
+        <v>0.277074934566004</v>
       </c>
       <c r="F2">
-        <v>0.583769067284635</v>
+        <v>1.016062852702859</v>
       </c>
       <c r="G2">
-        <v>0.4604338812784476</v>
+        <v>0.478399028328127</v>
       </c>
       <c r="H2">
-        <v>0.3084230899506366</v>
+        <v>0.6015429175750455</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.198163566803089</v>
+        <v>0.3242521349348237</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8604895211553014</v>
+        <v>0.3263770821254184</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.389353496177577</v>
+        <v>1.544034455689427</v>
       </c>
       <c r="O2">
-        <v>1.572808087290269</v>
+        <v>2.11909832864103</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.500258632030437</v>
+        <v>1.172498427706131</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1110938232733543</v>
+        <v>0.3145382607038649</v>
       </c>
       <c r="E3">
-        <v>0.1289833954120727</v>
+        <v>0.2787484308133124</v>
       </c>
       <c r="F3">
-        <v>0.5480391135860927</v>
+        <v>1.015695634011891</v>
       </c>
       <c r="G3">
-        <v>0.4140418015467162</v>
+        <v>0.4706120892634402</v>
       </c>
       <c r="H3">
-        <v>0.2918544359435344</v>
+        <v>0.6017140473454106</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1957493205558336</v>
+        <v>0.3245086020521342</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7495767805014566</v>
+        <v>0.2915641797759179</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.346283860955467</v>
+        <v>1.534132498240723</v>
       </c>
       <c r="O3">
-        <v>1.439408758114126</v>
+        <v>2.102651827298217</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.373241018442002</v>
+        <v>1.136742812036772</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1132441717058823</v>
+        <v>0.3162042631775228</v>
       </c>
       <c r="E4">
-        <v>0.1301932564174315</v>
+        <v>0.2798555459126337</v>
       </c>
       <c r="F4">
-        <v>0.5272202883324013</v>
+        <v>1.016077682851176</v>
       </c>
       <c r="G4">
-        <v>0.3863548789549895</v>
+        <v>0.4661790110110786</v>
       </c>
       <c r="H4">
-        <v>0.2821909016219735</v>
+        <v>0.6021190051582863</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1943723550136767</v>
+        <v>0.3247499973653092</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6813922757686441</v>
+        <v>0.2701451504159706</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.32098735458294</v>
+        <v>1.528629063277918</v>
       </c>
       <c r="O4">
-        <v>1.360248873081702</v>
+        <v>2.093908432855613</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.321564348720301</v>
+        <v>1.122245591141905</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1141510955208838</v>
+        <v>0.3169071961043239</v>
       </c>
       <c r="E5">
-        <v>0.1307120466775356</v>
+        <v>0.2803267791594735</v>
       </c>
       <c r="F5">
-        <v>0.5190027944529731</v>
+        <v>1.016386161353765</v>
       </c>
       <c r="G5">
-        <v>0.3752584854249505</v>
+        <v>0.4644599745647611</v>
       </c>
       <c r="H5">
-        <v>0.2783745901220982</v>
+        <v>0.6023595011320424</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1938379054447097</v>
+        <v>0.3248695935038697</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6535813398949273</v>
+        <v>0.2614064453309766</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.310958911732953</v>
+        <v>1.526532059359923</v>
       </c>
       <c r="O5">
-        <v>1.328637352493956</v>
+        <v>2.090686105062105</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.312988170566001</v>
+        <v>1.119842815865752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1143035313662346</v>
+        <v>0.3170253697435186</v>
       </c>
       <c r="E6">
-        <v>0.1307997473303946</v>
+        <v>0.2804062414171469</v>
       </c>
       <c r="F6">
-        <v>0.5176539420778781</v>
+        <v>1.016446612853976</v>
       </c>
       <c r="G6">
-        <v>0.3734267783625427</v>
+        <v>0.4641798115634401</v>
       </c>
       <c r="H6">
-        <v>0.277748057885745</v>
+        <v>0.602403995545302</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1937507767100648</v>
+        <v>0.324890737923841</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.648961718016011</v>
+        <v>0.2599547907832402</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.309310368189983</v>
+        <v>1.526192674952455</v>
       </c>
       <c r="O6">
-        <v>1.323426094586239</v>
+        <v>2.090171615879569</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.372543765933102</v>
+        <v>1.136546998160753</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1132562791335068</v>
+        <v>0.316213645851616</v>
       </c>
       <c r="E7">
-        <v>0.13020014869557</v>
+        <v>0.279861819762095</v>
       </c>
       <c r="F7">
-        <v>0.5271084054528572</v>
+        <v>1.016081224426301</v>
       </c>
       <c r="G7">
-        <v>0.3862044935389974</v>
+        <v>0.4661554733690139</v>
       </c>
       <c r="H7">
-        <v>0.2821389492999771</v>
+        <v>0.6021219429020164</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1943650390025766</v>
+        <v>0.3247515241761576</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6810173150499708</v>
+        <v>0.2700273378262636</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.320850984558632</v>
+        <v>1.528600191456206</v>
       </c>
       <c r="O7">
-        <v>1.359819987183016</v>
+        <v>2.093863596040819</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.636123634914384</v>
+        <v>1.210900455982852</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1089047841937436</v>
+        <v>0.3128424815185729</v>
       </c>
       <c r="E8">
-        <v>0.1277804248796333</v>
+        <v>0.277635476950568</v>
       </c>
       <c r="F8">
-        <v>0.5712076746366535</v>
+        <v>1.015810155810165</v>
       </c>
       <c r="G8">
-        <v>0.4442633684285795</v>
+        <v>0.4756417955499614</v>
       </c>
       <c r="H8">
-        <v>0.3026004141509873</v>
+        <v>0.6015397193522318</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1973093634782686</v>
+        <v>0.3243232193657875</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8222615226691516</v>
+        <v>0.3143831033444258</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.374259335091935</v>
+        <v>1.540501067644243</v>
       </c>
       <c r="O8">
-        <v>1.526214396989133</v>
+        <v>2.113146367178018</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.156763566594691</v>
+        <v>1.358933833196147</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1013617971371561</v>
+        <v>0.3069864810221432</v>
       </c>
       <c r="E9">
-        <v>0.1238483825843169</v>
+        <v>0.2738982631986158</v>
       </c>
       <c r="F9">
-        <v>0.6672915947799751</v>
+        <v>1.020099442242298</v>
       </c>
       <c r="G9">
-        <v>0.5651378768815931</v>
+        <v>0.4970112425790063</v>
       </c>
       <c r="H9">
-        <v>0.3470807407985887</v>
+        <v>0.6027752942084277</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2039122910796891</v>
+        <v>0.3241439931874837</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.098795953659533</v>
+        <v>0.4009894459474026</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.488527618617908</v>
+        <v>1.56838217912896</v>
       </c>
       <c r="O9">
-        <v>1.876430328642272</v>
+        <v>2.161715208345271</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.5426135503252</v>
+        <v>1.468995005414001</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09644337294683503</v>
+        <v>0.3031415650416127</v>
       </c>
       <c r="E10">
-        <v>0.121455312915705</v>
+        <v>0.2715319608101119</v>
       </c>
       <c r="F10">
-        <v>0.7448046194100897</v>
+        <v>1.026192485369606</v>
       </c>
       <c r="G10">
-        <v>0.6592445701186449</v>
+        <v>0.5144067978424971</v>
       </c>
       <c r="H10">
-        <v>0.3828762213974528</v>
+        <v>0.6051305155200026</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2092600783022931</v>
+        <v>0.3244083014396821</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.302044705559723</v>
+        <v>0.4643589363087699</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.578924891635694</v>
+        <v>1.591600178760487</v>
       </c>
       <c r="O10">
-        <v>2.151441801710405</v>
+        <v>2.203970627482192</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.71912182865475</v>
+        <v>1.51933598725185</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09434574149129293</v>
+        <v>0.3014911791132651</v>
       </c>
       <c r="E11">
-        <v>0.1204743438319102</v>
+        <v>0.2705370533891678</v>
       </c>
       <c r="F11">
-        <v>0.7818214054606045</v>
+        <v>1.029603859840648</v>
       </c>
       <c r="G11">
-        <v>0.7034489154170984</v>
+        <v>0.5226906305193921</v>
       </c>
       <c r="H11">
-        <v>0.3999464033289399</v>
+        <v>0.6065159478723956</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2117989233159676</v>
+        <v>0.3246131090735318</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.394611551277308</v>
+        <v>0.4931245627733176</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.62159811823858</v>
+        <v>1.602748993485505</v>
       </c>
       <c r="O11">
-        <v>2.281138647111163</v>
+        <v>2.224624412692123</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.786123969034918</v>
+        <v>1.538436960937929</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09357192661747149</v>
+        <v>0.3008803693429991</v>
       </c>
       <c r="E12">
-        <v>0.120118360858827</v>
+        <v>0.2701719684392643</v>
       </c>
       <c r="F12">
-        <v>0.7961134618617365</v>
+        <v>1.030987650726175</v>
       </c>
       <c r="G12">
-        <v>0.7204099908456101</v>
+        <v>0.5258808864636535</v>
       </c>
       <c r="H12">
-        <v>0.4065332780325548</v>
+        <v>0.6070856864354255</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2127754067247523</v>
+        <v>0.3247027051620819</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.429687198165368</v>
+        <v>0.5040078546168161</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.637993509688698</v>
+        <v>1.607054477091168</v>
       </c>
       <c r="O12">
-        <v>2.330977809082839</v>
+        <v>2.23265145945544</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.771686292164247</v>
+        <v>1.534321559635259</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09373766242057879</v>
+        <v>0.3010112891440722</v>
       </c>
       <c r="E13">
-        <v>0.1201943391546738</v>
+        <v>0.2702500781651196</v>
       </c>
       <c r="F13">
-        <v>0.7930228305895071</v>
+        <v>1.03068553587984</v>
       </c>
       <c r="G13">
-        <v>0.7167468982204923</v>
+        <v>0.5251914339949053</v>
       </c>
       <c r="H13">
-        <v>0.4051090557558439</v>
+        <v>0.6069609777940315</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2125644358405623</v>
+        <v>0.3246828754942399</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.422131905812392</v>
+        <v>0.5016643836458741</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.634451759650915</v>
+        <v>1.606123504253844</v>
       </c>
       <c r="O13">
-        <v>2.320210685366675</v>
+        <v>2.230913532869863</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.724630757377156</v>
+        <v>1.52090668360097</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09428166574239505</v>
+        <v>0.3014406439294284</v>
       </c>
       <c r="E14">
-        <v>0.1204447464303442</v>
+        <v>0.2705067841901041</v>
       </c>
       <c r="F14">
-        <v>0.7829915860821188</v>
+        <v>1.029715861784979</v>
       </c>
       <c r="G14">
-        <v>0.7048397399303354</v>
+        <v>0.5229520252237734</v>
       </c>
       <c r="H14">
-        <v>0.4004857913720627</v>
+        <v>0.6065619169249317</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2118789580469027</v>
+        <v>0.324620239594843</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.397496750312598</v>
+        <v>0.494020135175532</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.622942170922727</v>
+        <v>1.603101535424514</v>
       </c>
       <c r="O14">
-        <v>2.285224008766477</v>
+        <v>2.225280675736087</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.695829664750306</v>
+        <v>1.512694583410052</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0946175673954901</v>
+        <v>0.3017054785595183</v>
       </c>
       <c r="E15">
-        <v>0.1206001454701848</v>
+        <v>0.270665541387082</v>
       </c>
       <c r="F15">
-        <v>0.7768836024524148</v>
+        <v>1.029133886581221</v>
       </c>
       <c r="G15">
-        <v>0.6975758098326992</v>
+        <v>0.5215872722505992</v>
       </c>
       <c r="H15">
-        <v>0.3976701941800656</v>
+        <v>0.6063233531334049</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2114610413224796</v>
+        <v>0.3245834376479735</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.382410169027906</v>
+        <v>0.4893365352743615</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.615923342710005</v>
+        <v>1.601261367380815</v>
       </c>
       <c r="O15">
-        <v>2.263890193861812</v>
+        <v>2.221857204511309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.53109985582455</v>
+        <v>1.465710489067874</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09658330567120021</v>
+        <v>0.3032514044281509</v>
       </c>
       <c r="E16">
-        <v>0.121521588494689</v>
+        <v>0.2715986159327493</v>
       </c>
       <c r="F16">
-        <v>0.7424226739802151</v>
+        <v>1.025982414910231</v>
       </c>
       <c r="G16">
-        <v>0.6563855646171532</v>
+        <v>0.5138728914601103</v>
       </c>
       <c r="H16">
-        <v>0.3817772838784634</v>
+        <v>0.6050462889300974</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.209096278591467</v>
+        <v>0.3243966081919041</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.295998006545716</v>
+        <v>0.4624777306702299</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.576168393959421</v>
+        <v>1.590883324621061</v>
       </c>
       <c r="O16">
-        <v>2.143063710497188</v>
+        <v>2.202649665251101</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.430309669322071</v>
+        <v>1.43695634282227</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09782531145427598</v>
+        <v>0.3042250304531731</v>
       </c>
       <c r="E17">
-        <v>0.1221144419287263</v>
+        <v>0.2721918674815313</v>
       </c>
       <c r="F17">
-        <v>0.7217469885029857</v>
+        <v>1.024212912008338</v>
       </c>
       <c r="G17">
-        <v>0.6314886030960452</v>
+        <v>0.5092353148047124</v>
       </c>
       <c r="H17">
-        <v>0.3722356347322631</v>
+        <v>0.6043432453424202</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2076726222561902</v>
+        <v>0.3243035687672347</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.243019424723968</v>
+        <v>0.4459844188715181</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.552186230150141</v>
+        <v>1.58466652067564</v>
       </c>
       <c r="O17">
-        <v>2.070161995072453</v>
+        <v>2.19123315949102</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.372429021558844</v>
+        <v>1.420443555095574</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09855281172749031</v>
+        <v>0.3047943252530887</v>
       </c>
       <c r="E18">
-        <v>0.1224655675695701</v>
+        <v>0.2725407681370378</v>
       </c>
       <c r="F18">
-        <v>0.710018729548139</v>
+        <v>1.023255344702633</v>
       </c>
       <c r="G18">
-        <v>0.6172984507739869</v>
+        <v>0.506602773225481</v>
       </c>
       <c r="H18">
-        <v>0.366820956866448</v>
+        <v>0.6039684343959948</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2068637711739001</v>
+        <v>0.3242580225455995</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.212557247969471</v>
+        <v>0.4364921629859282</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.538537495404967</v>
+        <v>1.58114605697682</v>
       </c>
       <c r="O18">
-        <v>2.028658978491961</v>
+        <v>2.184801432205234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.352846680425841</v>
+        <v>1.414857089312818</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09880137391836907</v>
+        <v>0.3049886754832674</v>
       </c>
       <c r="E19">
-        <v>0.1225861925998633</v>
+        <v>0.2726602204438784</v>
       </c>
       <c r="F19">
-        <v>0.7060752327859205</v>
+        <v>1.022941468899646</v>
       </c>
       <c r="G19">
-        <v>0.6125155979879935</v>
+        <v>0.5057174266534332</v>
       </c>
       <c r="H19">
-        <v>0.3649999676940041</v>
+        <v>0.6038466085780385</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2065916308180817</v>
+        <v>0.3242439735316367</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.202244739775892</v>
+        <v>0.433277286544751</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.533940820760506</v>
+        <v>1.579963604380197</v>
       </c>
       <c r="O19">
-        <v>2.014678381492928</v>
+        <v>2.182646900928034</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.441029371113302</v>
+        <v>1.440014606980526</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09769173584851476</v>
+        <v>0.3041204249886302</v>
       </c>
       <c r="E20">
-        <v>0.1220502829799592</v>
+        <v>0.2721279206256817</v>
       </c>
       <c r="F20">
-        <v>0.7239308371114674</v>
+        <v>1.024395047715828</v>
       </c>
       <c r="G20">
-        <v>0.6341253311897788</v>
+        <v>0.5097253833456961</v>
       </c>
       <c r="H20">
-        <v>0.3732436924273657</v>
+        <v>0.6044150264395682</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2078231394140886</v>
+        <v>0.3243126492389905</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.248658031901243</v>
+        <v>0.4477407597581191</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.554724056620358</v>
+        <v>1.585322594267637</v>
       </c>
       <c r="O20">
-        <v>2.077877738946881</v>
+        <v>2.192434520074983</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.738447529922439</v>
+        <v>1.524845939489865</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09412131869210771</v>
+        <v>0.3013141481232795</v>
       </c>
       <c r="E21">
-        <v>0.1203707753130896</v>
+        <v>0.2704310673010557</v>
       </c>
       <c r="F21">
-        <v>0.7859303694239372</v>
+        <v>1.029998182330985</v>
       </c>
       <c r="G21">
-        <v>0.7083309630593533</v>
+        <v>0.5236083454605733</v>
       </c>
       <c r="H21">
-        <v>0.4018403440845191</v>
+        <v>0.6066779070418136</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2120798917238034</v>
+        <v>0.3246383114838451</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.404732019994583</v>
+        <v>0.4962657037756344</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.626316305037648</v>
+        <v>1.603986895824022</v>
       </c>
       <c r="O21">
-        <v>2.295480202963972</v>
+        <v>2.226929593825759</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.933784244198648</v>
+        <v>1.580508590815384</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09190761370888101</v>
+        <v>0.2995625771529395</v>
       </c>
       <c r="E22">
-        <v>0.1193634043622271</v>
+        <v>0.2693900399698705</v>
       </c>
       <c r="F22">
-        <v>0.8280625921554474</v>
+        <v>1.034196268822015</v>
       </c>
       <c r="G22">
-        <v>0.7581326996255626</v>
+        <v>0.5329926494252106</v>
       </c>
       <c r="H22">
-        <v>0.4212504611407155</v>
+        <v>0.6084197149190231</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2149497266359006</v>
+        <v>0.324921272216244</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.506870826332346</v>
+        <v>0.5279230848143186</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.674487955049386</v>
+        <v>1.616672458928463</v>
       </c>
       <c r="O22">
-        <v>2.441960050811474</v>
+        <v>2.250674317897534</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.829434506177336</v>
+        <v>1.550780677224054</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09307800951024436</v>
+        <v>0.3004898870343125</v>
       </c>
       <c r="E23">
-        <v>0.1198927932169038</v>
+        <v>0.2699394567824829</v>
       </c>
       <c r="F23">
-        <v>0.8054206371163986</v>
+        <v>1.031906616636874</v>
       </c>
       <c r="G23">
-        <v>0.731425829694345</v>
+        <v>0.5279555920233179</v>
       </c>
       <c r="H23">
-        <v>0.4108216197229666</v>
+        <v>0.6074660424877294</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2134100677721591</v>
+        <v>0.3247638746321329</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.452342525181763</v>
+        <v>0.5110323717299252</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.648646904946531</v>
+        <v>1.609857575822559</v>
       </c>
       <c r="O23">
-        <v>2.363368046038033</v>
+        <v>2.23789147927306</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.436182793118974</v>
+        <v>1.438631908472132</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09775208350273878</v>
+        <v>0.3041676873878032</v>
       </c>
       <c r="E24">
-        <v>0.1220792572018095</v>
+        <v>0.2721568065977085</v>
       </c>
       <c r="F24">
-        <v>0.7229430272193298</v>
+        <v>1.024312518065884</v>
       </c>
       <c r="G24">
-        <v>0.632932883515025</v>
+        <v>0.5095037185061528</v>
       </c>
       <c r="H24">
-        <v>0.3727877292924688</v>
+        <v>0.6043824826897719</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2077550606045122</v>
+        <v>0.3243085192057933</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.246108830844321</v>
+        <v>0.4469467492305057</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.553576273503282</v>
+        <v>1.585025816196733</v>
       </c>
       <c r="O24">
-        <v>2.074388181616058</v>
+        <v>2.191890974490207</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.015410575341548</v>
+        <v>1.318654353110446</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1032943747571542</v>
+        <v>0.3084901514158922</v>
       </c>
       <c r="E25">
-        <v>0.1248250477374206</v>
+        <v>0.274842373013529</v>
       </c>
       <c r="F25">
-        <v>0.6401639314630714</v>
+        <v>1.018422678855202</v>
       </c>
       <c r="G25">
-        <v>0.5315849454089232</v>
+        <v>0.4909331296876047</v>
       </c>
       <c r="H25">
-        <v>0.3345355289464464</v>
+        <v>0.6021867194194357</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2020381742580426</v>
+        <v>0.3241224514253247</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.023999295139646</v>
+        <v>0.3776035616652678</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.4565314038298</v>
+        <v>1.560356950195029</v>
       </c>
       <c r="O25">
-        <v>1.77881593622655</v>
+        <v>2.147423034456921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.231199300764985</v>
+        <v>1.707758783051162</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3119802486860817</v>
+        <v>0.1077920609647167</v>
       </c>
       <c r="E2">
-        <v>0.277074934566004</v>
+        <v>0.1271798164006182</v>
       </c>
       <c r="F2">
-        <v>1.016062852702859</v>
+        <v>0.583769067284635</v>
       </c>
       <c r="G2">
-        <v>0.478399028328127</v>
+        <v>0.4604338812784761</v>
       </c>
       <c r="H2">
-        <v>0.6015429175750455</v>
+        <v>0.3084230899507503</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3242521349348237</v>
+        <v>0.1981635668031245</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3263770821254184</v>
+        <v>0.8604895211553298</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.544034455689427</v>
+        <v>1.389353496177577</v>
       </c>
       <c r="O2">
-        <v>2.11909832864103</v>
+        <v>1.572808087290355</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.172498427706131</v>
+        <v>1.500258632030523</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3145382607038649</v>
+        <v>0.1110938232732352</v>
       </c>
       <c r="E3">
-        <v>0.2787484308133124</v>
+        <v>0.128983395412078</v>
       </c>
       <c r="F3">
-        <v>1.015695634011891</v>
+        <v>0.5480391135860927</v>
       </c>
       <c r="G3">
-        <v>0.4706120892634402</v>
+        <v>0.4140418015466878</v>
       </c>
       <c r="H3">
-        <v>0.6017140473454106</v>
+        <v>0.2918544359435344</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3245086020521342</v>
+        <v>0.1957493205558407</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2915641797759179</v>
+        <v>0.749576780501485</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.534132498240723</v>
+        <v>1.346283860955452</v>
       </c>
       <c r="O3">
-        <v>2.102651827298217</v>
+        <v>1.439408758114183</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.136742812036772</v>
+        <v>1.37324101844203</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3162042631775228</v>
+        <v>0.1132441717060066</v>
       </c>
       <c r="E4">
-        <v>0.2798555459126337</v>
+        <v>0.1301932564174333</v>
       </c>
       <c r="F4">
-        <v>1.016077682851176</v>
+        <v>0.5272202883323942</v>
       </c>
       <c r="G4">
-        <v>0.4661790110110786</v>
+        <v>0.3863548789549895</v>
       </c>
       <c r="H4">
-        <v>0.6021190051582863</v>
+        <v>0.2821909016219735</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3247499973653092</v>
+        <v>0.1943723550135985</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2701451504159706</v>
+        <v>0.6813922757686868</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.528629063277918</v>
+        <v>1.320987354582883</v>
       </c>
       <c r="O4">
-        <v>2.093908432855613</v>
+        <v>1.360248873081673</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.122245591141905</v>
+        <v>1.321564348720329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3169071961043239</v>
+        <v>0.1141510955208913</v>
       </c>
       <c r="E5">
-        <v>0.2803267791594735</v>
+        <v>0.1307120466775267</v>
       </c>
       <c r="F5">
-        <v>1.016386161353765</v>
+        <v>0.5190027944530016</v>
       </c>
       <c r="G5">
-        <v>0.4644599745647611</v>
+        <v>0.3752584854249363</v>
       </c>
       <c r="H5">
-        <v>0.6023595011320424</v>
+        <v>0.2783745901222119</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3248695935038697</v>
+        <v>0.1938379054446955</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2614064453309766</v>
+        <v>0.6535813398947994</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.526532059359923</v>
+        <v>1.310958911732953</v>
       </c>
       <c r="O5">
-        <v>2.090686105062105</v>
+        <v>1.328637352494042</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.119842815865752</v>
+        <v>1.312988170565887</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3170253697435186</v>
+        <v>0.114303531366243</v>
       </c>
       <c r="E6">
-        <v>0.2804062414171469</v>
+        <v>0.130799747330439</v>
       </c>
       <c r="F6">
-        <v>1.016446612853976</v>
+        <v>0.5176539420778852</v>
       </c>
       <c r="G6">
-        <v>0.4641798115634401</v>
+        <v>0.3734267783625143</v>
       </c>
       <c r="H6">
-        <v>0.602403995545302</v>
+        <v>0.2777480578857592</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.324890737923841</v>
+        <v>0.1937507767101891</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2599547907832402</v>
+        <v>0.6489617180158689</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.526192674952455</v>
+        <v>1.309310368189998</v>
       </c>
       <c r="O6">
-        <v>2.090171615879569</v>
+        <v>1.323426094586182</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.136546998160753</v>
+        <v>1.372543765933216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.316213645851616</v>
+        <v>0.1132562791333931</v>
       </c>
       <c r="E7">
-        <v>0.279861819762095</v>
+        <v>0.1302001486955628</v>
       </c>
       <c r="F7">
-        <v>1.016081224426301</v>
+        <v>0.5271084054528714</v>
       </c>
       <c r="G7">
-        <v>0.4661554733690139</v>
+        <v>0.3862044935389264</v>
       </c>
       <c r="H7">
-        <v>0.6021219429020164</v>
+        <v>0.2821389492999771</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3247515241761576</v>
+        <v>0.1943650390025624</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2700273378262636</v>
+        <v>0.6810173150499708</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.528600191456206</v>
+        <v>1.320850984558575</v>
       </c>
       <c r="O7">
-        <v>2.093863596040819</v>
+        <v>1.359819987183073</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.210900455982852</v>
+        <v>1.636123634914298</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3128424815185729</v>
+        <v>0.108904784193621</v>
       </c>
       <c r="E8">
-        <v>0.277635476950568</v>
+        <v>0.1277804248796279</v>
       </c>
       <c r="F8">
-        <v>1.015810155810165</v>
+        <v>0.5712076746366606</v>
       </c>
       <c r="G8">
-        <v>0.4756417955499614</v>
+        <v>0.4442633684285937</v>
       </c>
       <c r="H8">
-        <v>0.6015397193522318</v>
+        <v>0.3026004141509873</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3243232193657875</v>
+        <v>0.1973093634783822</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3143831033444258</v>
+        <v>0.8222615226691801</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.540501067644243</v>
+        <v>1.374259335091935</v>
       </c>
       <c r="O8">
-        <v>2.113146367178018</v>
+        <v>1.526214396989076</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.358933833196147</v>
+        <v>2.156763566594748</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3069864810221432</v>
+        <v>0.1013617971371543</v>
       </c>
       <c r="E9">
-        <v>0.2738982631986158</v>
+        <v>0.1238483825843311</v>
       </c>
       <c r="F9">
-        <v>1.020099442242298</v>
+        <v>0.6672915947799751</v>
       </c>
       <c r="G9">
-        <v>0.4970112425790063</v>
+        <v>0.5651378768815931</v>
       </c>
       <c r="H9">
-        <v>0.6027752942084277</v>
+        <v>0.3470807407984751</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3241439931874837</v>
+        <v>0.2039122910795754</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4009894459474026</v>
+        <v>1.098795953659504</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.56838217912896</v>
+        <v>1.488527618617908</v>
       </c>
       <c r="O9">
-        <v>2.161715208345271</v>
+        <v>1.876430328642243</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.468995005414001</v>
+        <v>2.542613550325143</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3031415650416127</v>
+        <v>0.09644337294683147</v>
       </c>
       <c r="E10">
-        <v>0.2715319608101119</v>
+        <v>0.1214553129157192</v>
       </c>
       <c r="F10">
-        <v>1.026192485369606</v>
+        <v>0.7448046194100897</v>
       </c>
       <c r="G10">
-        <v>0.5144067978424971</v>
+        <v>0.6592445701187586</v>
       </c>
       <c r="H10">
-        <v>0.6051305155200026</v>
+        <v>0.3828762213974386</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3244083014396821</v>
+        <v>0.2092600783022363</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4643589363087699</v>
+        <v>1.302044705559723</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.591600178760487</v>
+        <v>1.578924891635694</v>
       </c>
       <c r="O10">
-        <v>2.203970627482192</v>
+        <v>2.151441801710433</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.51933598725185</v>
+        <v>2.719121828654863</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3014911791132651</v>
+        <v>0.09434574149135067</v>
       </c>
       <c r="E11">
-        <v>0.2705370533891678</v>
+        <v>0.1204743438319102</v>
       </c>
       <c r="F11">
-        <v>1.029603859840648</v>
+        <v>0.7818214054606045</v>
       </c>
       <c r="G11">
-        <v>0.5226906305193921</v>
+        <v>0.7034489154170558</v>
       </c>
       <c r="H11">
-        <v>0.6065159478723956</v>
+        <v>0.3999464033289399</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3246131090735318</v>
+        <v>0.211798923315996</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4931245627733176</v>
+        <v>1.394611551277507</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.602748993485505</v>
+        <v>1.621598118238637</v>
       </c>
       <c r="O11">
-        <v>2.224624412692123</v>
+        <v>2.281138647111163</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.538436960937929</v>
+        <v>2.786123969034747</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3008803693429991</v>
+        <v>0.09357192661757008</v>
       </c>
       <c r="E12">
-        <v>0.2701719684392643</v>
+        <v>0.1201183608588359</v>
       </c>
       <c r="F12">
-        <v>1.030987650726175</v>
+        <v>0.7961134618617365</v>
       </c>
       <c r="G12">
-        <v>0.5258808864636535</v>
+        <v>0.7204099908455532</v>
       </c>
       <c r="H12">
-        <v>0.6070856864354255</v>
+        <v>0.4065332780326827</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3247027051620819</v>
+        <v>0.212775406724738</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5040078546168161</v>
+        <v>1.429687198165198</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.607054477091168</v>
+        <v>1.63799350968867</v>
       </c>
       <c r="O12">
-        <v>2.23265145945544</v>
+        <v>2.330977809082839</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.534321559635259</v>
+        <v>2.771686292164247</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3010112891440722</v>
+        <v>0.09373766242057346</v>
       </c>
       <c r="E13">
-        <v>0.2702500781651196</v>
+        <v>0.120194339154672</v>
       </c>
       <c r="F13">
-        <v>1.03068553587984</v>
+        <v>0.7930228305895355</v>
       </c>
       <c r="G13">
-        <v>0.5251914339949053</v>
+        <v>0.7167468982204355</v>
       </c>
       <c r="H13">
-        <v>0.6069609777940315</v>
+        <v>0.4051090557558439</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3246828754942399</v>
+        <v>0.212564435840541</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5016643836458741</v>
+        <v>1.422131905812421</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.606123504253844</v>
+        <v>1.634451759650943</v>
       </c>
       <c r="O13">
-        <v>2.230913532869863</v>
+        <v>2.320210685366703</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.52090668360097</v>
+        <v>2.724630757377099</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3014406439294284</v>
+        <v>0.09428166574238883</v>
       </c>
       <c r="E14">
-        <v>0.2705067841901041</v>
+        <v>0.1204447464303549</v>
       </c>
       <c r="F14">
-        <v>1.029715861784979</v>
+        <v>0.7829915860821188</v>
       </c>
       <c r="G14">
-        <v>0.5229520252237734</v>
+        <v>0.704839739930307</v>
       </c>
       <c r="H14">
-        <v>0.6065619169249317</v>
+        <v>0.4004857913721764</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.324620239594843</v>
+        <v>0.2118789580468388</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.494020135175532</v>
+        <v>1.397496750312513</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.603101535424514</v>
+        <v>1.622942170922727</v>
       </c>
       <c r="O14">
-        <v>2.225280675736087</v>
+        <v>2.285224008766477</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.512694583410052</v>
+        <v>2.695829664750249</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3017054785595183</v>
+        <v>0.09461756739542349</v>
       </c>
       <c r="E15">
-        <v>0.270665541387082</v>
+        <v>0.120600145470199</v>
       </c>
       <c r="F15">
-        <v>1.029133886581221</v>
+        <v>0.7768836024524148</v>
       </c>
       <c r="G15">
-        <v>0.5215872722505992</v>
+        <v>0.6975758098326708</v>
       </c>
       <c r="H15">
-        <v>0.6063233531334049</v>
+        <v>0.3976701941800656</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3245834376479735</v>
+        <v>0.2114610413225577</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4893365352743615</v>
+        <v>1.38241016902785</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.601261367380815</v>
+        <v>1.615923342709948</v>
       </c>
       <c r="O15">
-        <v>2.221857204511309</v>
+        <v>2.263890193861897</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.465710489067874</v>
+        <v>2.531099855824607</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3032514044281509</v>
+        <v>0.0965833056713814</v>
       </c>
       <c r="E16">
-        <v>0.2715986159327493</v>
+        <v>0.121521588494673</v>
       </c>
       <c r="F16">
-        <v>1.025982414910231</v>
+        <v>0.7424226739802151</v>
       </c>
       <c r="G16">
-        <v>0.5138728914601103</v>
+        <v>0.6563855646171106</v>
       </c>
       <c r="H16">
-        <v>0.6050462889300974</v>
+        <v>0.3817772838784776</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3243966081919041</v>
+        <v>0.2090962785914954</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4624777306702299</v>
+        <v>1.295998006545574</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.590883324621061</v>
+        <v>1.576168393959406</v>
       </c>
       <c r="O16">
-        <v>2.202649665251101</v>
+        <v>2.143063710497273</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.43695634282227</v>
+        <v>2.430309669322185</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3042250304531731</v>
+        <v>0.09782531145415874</v>
       </c>
       <c r="E17">
-        <v>0.2721918674815313</v>
+        <v>0.1221144419287246</v>
       </c>
       <c r="F17">
-        <v>1.024212912008338</v>
+        <v>0.7217469885029999</v>
       </c>
       <c r="G17">
-        <v>0.5092353148047124</v>
+        <v>0.6314886030960167</v>
       </c>
       <c r="H17">
-        <v>0.6043432453424202</v>
+        <v>0.3722356347321494</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3243035687672347</v>
+        <v>0.2076726222561192</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4459844188715181</v>
+        <v>1.243019424724025</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.58466652067564</v>
+        <v>1.552186230150127</v>
       </c>
       <c r="O17">
-        <v>2.19123315949102</v>
+        <v>2.070161995072453</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.420443555095574</v>
+        <v>2.372429021558446</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3047943252530887</v>
+        <v>0.09855281172753827</v>
       </c>
       <c r="E18">
-        <v>0.2725407681370378</v>
+        <v>0.1224655675695576</v>
       </c>
       <c r="F18">
-        <v>1.023255344702633</v>
+        <v>0.7100187295481248</v>
       </c>
       <c r="G18">
-        <v>0.506602773225481</v>
+        <v>0.6172984507739301</v>
       </c>
       <c r="H18">
-        <v>0.6039684343959948</v>
+        <v>0.366820956866448</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3242580225455995</v>
+        <v>0.2068637711739143</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4364921629859282</v>
+        <v>1.212557247969301</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.58114605697682</v>
+        <v>1.538537495404924</v>
       </c>
       <c r="O18">
-        <v>2.184801432205234</v>
+        <v>2.028658978491961</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.414857089312818</v>
+        <v>2.352846680426296</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3049886754832674</v>
+        <v>0.09880137391854049</v>
       </c>
       <c r="E19">
-        <v>0.2726602204438784</v>
+        <v>0.1225861925998633</v>
       </c>
       <c r="F19">
-        <v>1.022941468899646</v>
+        <v>0.7060752327859205</v>
       </c>
       <c r="G19">
-        <v>0.5057174266534332</v>
+        <v>0.6125155979879935</v>
       </c>
       <c r="H19">
-        <v>0.6038466085780385</v>
+        <v>0.3649999676940183</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3242439735316367</v>
+        <v>0.2065916308180391</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.433277286544751</v>
+        <v>1.202244739775892</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.579963604380197</v>
+        <v>1.533940820760449</v>
       </c>
       <c r="O19">
-        <v>2.182646900928034</v>
+        <v>2.014678381492899</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.440014606980526</v>
+        <v>2.441029371113586</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3041204249886302</v>
+        <v>0.09769173584816837</v>
       </c>
       <c r="E20">
-        <v>0.2721279206256817</v>
+        <v>0.1220502829799717</v>
       </c>
       <c r="F20">
-        <v>1.024395047715828</v>
+        <v>0.7239308371114817</v>
       </c>
       <c r="G20">
-        <v>0.5097253833456961</v>
+        <v>0.6341253311897646</v>
       </c>
       <c r="H20">
-        <v>0.6044150264395682</v>
+        <v>0.3732436924273657</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3243126492389905</v>
+        <v>0.2078231394142023</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4477407597581191</v>
+        <v>1.248658031901329</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.585322594267637</v>
+        <v>1.554724056620401</v>
       </c>
       <c r="O20">
-        <v>2.192434520074983</v>
+        <v>2.077877738946881</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.524845939489865</v>
+        <v>2.738447529922382</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3013141481232795</v>
+        <v>0.09412131869222229</v>
       </c>
       <c r="E21">
-        <v>0.2704310673010557</v>
+        <v>0.1203707753131216</v>
       </c>
       <c r="F21">
-        <v>1.029998182330985</v>
+        <v>0.7859303694239372</v>
       </c>
       <c r="G21">
-        <v>0.5236083454605733</v>
+        <v>0.7083309630593533</v>
       </c>
       <c r="H21">
-        <v>0.6066779070418136</v>
+        <v>0.4018403440844054</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3246383114838451</v>
+        <v>0.2120798917238034</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4962657037756344</v>
+        <v>1.404732019994583</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.603986895824022</v>
+        <v>1.626316305037648</v>
       </c>
       <c r="O21">
-        <v>2.226929593825759</v>
+        <v>2.295480202963972</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.580508590815384</v>
+        <v>2.933784244198648</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2995625771529395</v>
+        <v>0.09190761370912615</v>
       </c>
       <c r="E22">
-        <v>0.2693900399698705</v>
+        <v>0.1193634043622236</v>
       </c>
       <c r="F22">
-        <v>1.034196268822015</v>
+        <v>0.8280625921554616</v>
       </c>
       <c r="G22">
-        <v>0.5329926494252106</v>
+        <v>0.75813269962552</v>
       </c>
       <c r="H22">
-        <v>0.6084197149190231</v>
+        <v>0.4212504611407013</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.324921272216244</v>
+        <v>0.2149497266359148</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5279230848143186</v>
+        <v>1.506870826332545</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.616672458928463</v>
+        <v>1.674487955049386</v>
       </c>
       <c r="O22">
-        <v>2.250674317897534</v>
+        <v>2.441960050811474</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.550780677224054</v>
+        <v>2.829434506177336</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3004898870343125</v>
+        <v>0.09307800950996103</v>
       </c>
       <c r="E23">
-        <v>0.2699394567824829</v>
+        <v>0.1198927932168914</v>
       </c>
       <c r="F23">
-        <v>1.031906616636874</v>
+        <v>0.8054206371163843</v>
       </c>
       <c r="G23">
-        <v>0.5279555920233179</v>
+        <v>0.7314258296943734</v>
       </c>
       <c r="H23">
-        <v>0.6074660424877294</v>
+        <v>0.4108216197229666</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3247638746321329</v>
+        <v>0.2134100677721378</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5110323717299252</v>
+        <v>1.452342525181763</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.609857575822559</v>
+        <v>1.648646904946531</v>
       </c>
       <c r="O23">
-        <v>2.23789147927306</v>
+        <v>2.363368046038147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.438631908472132</v>
+        <v>2.436182793118917</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3041676873878032</v>
+        <v>0.09775208350256648</v>
       </c>
       <c r="E24">
-        <v>0.2721568065977085</v>
+        <v>0.122079257201797</v>
       </c>
       <c r="F24">
-        <v>1.024312518065884</v>
+        <v>0.7229430272193298</v>
       </c>
       <c r="G24">
-        <v>0.5095037185061528</v>
+        <v>0.6329328835151102</v>
       </c>
       <c r="H24">
-        <v>0.6043824826897719</v>
+        <v>0.3727877292924688</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3243085192057933</v>
+        <v>0.2077550606045264</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4469467492305057</v>
+        <v>1.246108830844207</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.585025816196733</v>
+        <v>1.553576273503253</v>
       </c>
       <c r="O24">
-        <v>2.191890974490207</v>
+        <v>2.074388181616115</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.318654353110446</v>
+        <v>2.015410575341321</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3084901514158922</v>
+        <v>0.1032943747570378</v>
       </c>
       <c r="E25">
-        <v>0.274842373013529</v>
+        <v>0.1248250477374047</v>
       </c>
       <c r="F25">
-        <v>1.018422678855202</v>
+        <v>0.6401639314630714</v>
       </c>
       <c r="G25">
-        <v>0.4909331296876047</v>
+        <v>0.5315849454089232</v>
       </c>
       <c r="H25">
-        <v>0.6021867194194357</v>
+        <v>0.3345355289464464</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3241224514253247</v>
+        <v>0.2020381742580923</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3776035616652678</v>
+        <v>1.023999295139646</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.560356950195029</v>
+        <v>1.456531403829715</v>
       </c>
       <c r="O25">
-        <v>2.147423034456921</v>
+        <v>1.77881593622655</v>
       </c>
     </row>
   </sheetData>
